--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/metrics/Trial_403__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/metrics/Trial_403__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6169,13 +6169,13 @@
                   <c:v>331.4637145996094</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>331.75</c:v>
+                  <c:v>331.7499694824219</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>349.5072631835938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>356.4837036132812</c:v>
+                  <c:v>356.4836730957031</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>351.2442321777344</c:v>
@@ -6187,10 +6187,10 @@
                   <c:v>357.7436828613281</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>367.7803344726562</c:v>
+                  <c:v>367.7803649902344</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>355.3287963867188</c:v>
+                  <c:v>355.3287658691406</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>335.7675170898438</c:v>
@@ -6238,7 +6238,7 @@
                   <c:v>355.6433715820312</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>350.858642578125</c:v>
+                  <c:v>350.8586120605469</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>341.3381958007812</c:v>
@@ -6277,16 +6277,16 @@
                   <c:v>352.6140747070312</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>359.476806640625</c:v>
+                  <c:v>359.4768371582031</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>348.4464721679688</c:v>
+                  <c:v>348.4464416503906</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>337.6918334960938</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>358.8888549804688</c:v>
+                  <c:v>358.8888244628906</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>347.8866882324219</c:v>
@@ -6298,7 +6298,7 @@
                   <c:v>355.1720886230469</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>353.0292053222656</c:v>
+                  <c:v>353.0291748046875</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>366.3008422851562</c:v>
@@ -6307,7 +6307,7 @@
                   <c:v>343.4175720214844</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>346.1887512207031</c:v>
+                  <c:v>346.1887817382812</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>339.49169921875</c:v>
@@ -6337,7 +6337,7 @@
                   <c:v>358.069091796875</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>351.3003234863281</c:v>
+                  <c:v>351.30029296875</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>351.9767456054688</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7087,8 +7099,14 @@
       <c r="H3">
         <v>384</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>384</v>
+      </c>
+      <c r="S3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>323.4327087402344</v>
       </c>
       <c r="G4">
+        <v>384</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>384</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7139,8 +7163,14 @@
       <c r="H5">
         <v>384</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>384</v>
+      </c>
+      <c r="S5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>354.3818969726562</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>384</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7191,8 +7227,14 @@
       <c r="H7">
         <v>384</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>384</v>
+      </c>
+      <c r="S7">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>375.9934997558594</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>351.3955993652344</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>356.1880493164062</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>355.2897338867188</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>344.864013671875</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>379.2538146972656</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>371.4364624023438</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>372.2436828613281</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7829,7 +7871,7 @@
         <v>339.263</v>
       </c>
       <c r="F39">
-        <v>331.75</v>
+        <v>331.7499694824219</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7869,7 +7911,7 @@
         <v>357.403</v>
       </c>
       <c r="F41">
-        <v>356.4837036132812</v>
+        <v>356.4836730957031</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7949,7 +7991,7 @@
         <v>356.38</v>
       </c>
       <c r="F45">
-        <v>367.7803344726562</v>
+        <v>367.7803649902344</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7969,7 +8011,7 @@
         <v>340.297</v>
       </c>
       <c r="F46">
-        <v>355.3287963867188</v>
+        <v>355.3287658691406</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8289,7 +8331,7 @@
         <v>341.812</v>
       </c>
       <c r="F62">
-        <v>350.858642578125</v>
+        <v>350.8586120605469</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8549,7 +8591,7 @@
         <v>358.371</v>
       </c>
       <c r="F75">
-        <v>359.476806640625</v>
+        <v>359.4768371582031</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8569,7 +8611,7 @@
         <v>342.169</v>
       </c>
       <c r="F76">
-        <v>348.4464721679688</v>
+        <v>348.4464416503906</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8609,7 +8651,7 @@
         <v>357.954</v>
       </c>
       <c r="F78">
-        <v>358.8888549804688</v>
+        <v>358.8888244628906</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8689,7 +8731,7 @@
         <v>337.046</v>
       </c>
       <c r="F82">
-        <v>353.0292053222656</v>
+        <v>353.0291748046875</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8749,7 +8791,7 @@
         <v>338.345</v>
       </c>
       <c r="F85">
-        <v>346.1887512207031</v>
+        <v>346.1887817382812</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8949,7 +8991,7 @@
         <v>357.722</v>
       </c>
       <c r="F95">
-        <v>351.3003234863281</v>
+        <v>351.30029296875</v>
       </c>
     </row>
     <row r="96" spans="1:6">
